--- a/Questions_set1.xlsx
+++ b/Questions_set1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#Question</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,34 +34,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>How many subjects or samples are there in total?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>How many centres are involved?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">What type of study is this? \n 
-(A) Prospective study 
-(B) Retrospective study
-(C) Cannot be determined
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>How many countries or regions are involved?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How many patients or subjects are assigned to treatment?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How many patients or subjects are assigned to placebo/control?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is this study about?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is there any randomization of subjects or patients?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is this study prospective or retrospective?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is there a control group?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">What type of study is this? \n 
 (A) Meta-analysis 
-(B) Systematic review of randomized controlled trials 
-(C) Single randomized controlled trial
-(D) Prospective cohort 
-(E) Retrospective cohort 
+(B) Systematic review of randomized controlled trials
+(C) Systematic review of studies without randomization
+(D) Randomized controlled trial
+(E) Cohort study
 (F) Case-control study 
-(G) Case series 
+(G) Case series (single-arm study, all patients undergo treatment)
 (H) Case report  
 (I) In vitro experiment 
 (J) Consensus recommendations
@@ -70,11 +82,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>How many patients or subjects are assigned to treatment?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How many patients or subjects are assigned to placebo/control?</t>
+    <t>Which approach is suggested by the authors?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How many subjects, samples or studies are there in total?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +125,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +194,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -474,44 +495,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="185.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="71.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="185.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:1" ht="21" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
+      <c r="A7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
